--- a/Dataset-in-situ-monitoring-and-structural-validation-of-FFF/Dataset 1/Tensile_test_results/tensile test all.xlsx
+++ b/Dataset-in-situ-monitoring-and-structural-validation-of-FFF/Dataset 1/Tensile_test_results/tensile test all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanzhouf\Documents\GitHub\Plastic_in_situ_monitoring_and_decision_making\Dataset-in-situ-monitoring-and-structural-validation-of-FFF\Tensile_test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanzhouf\Documents\GitHub\Plastic_in_situ_monitoring_and_decision_making\Dataset-in-situ-monitoring-and-structural-validation-of-FFF\Dataset 1\Tensile_test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E4BF7-38EE-4563-9CC9-D3D7BE069232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D436C302-BC8D-407E-940C-17992E3021C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4995" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G364" sqref="G364"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +439,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
@@ -459,6 +462,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
@@ -479,6 +485,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -499,6 +508,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
@@ -519,6 +531,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -539,6 +554,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -559,6 +577,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
@@ -579,6 +600,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
@@ -599,6 +623,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
@@ -619,6 +646,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1">
         <v>15</v>
       </c>
@@ -639,6 +669,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1">
         <v>15</v>
       </c>
@@ -659,6 +692,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1">
         <v>15</v>
       </c>
@@ -679,6 +715,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
@@ -699,6 +738,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
@@ -719,6 +761,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
@@ -738,7 +783,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -758,7 +806,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -778,7 +829,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -798,7 +852,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
@@ -818,7 +875,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
@@ -838,7 +898,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="1">
         <v>10</v>
       </c>
@@ -858,7 +921,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="1">
         <v>10</v>
       </c>
@@ -878,7 +944,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -898,7 +967,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="1">
         <v>15</v>
       </c>
@@ -918,7 +990,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="B26" s="1">
         <v>15</v>
       </c>
@@ -938,7 +1013,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="B27" s="1">
         <v>15</v>
       </c>
@@ -958,7 +1036,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="1">
         <v>5</v>
       </c>
@@ -978,7 +1059,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="1">
         <v>5</v>
       </c>
@@ -998,7 +1082,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1">
         <v>5</v>
       </c>
@@ -1018,7 +1105,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -1038,7 +1128,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1">
         <v>10</v>
       </c>
@@ -1058,7 +1151,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
       <c r="B33" s="1">
         <v>10</v>
       </c>
@@ -1078,7 +1174,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" s="1">
         <v>10</v>
       </c>
@@ -1098,7 +1197,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" s="1">
         <v>15</v>
       </c>
@@ -1118,7 +1220,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="B36" s="1">
         <v>15</v>
       </c>
@@ -1138,7 +1243,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
       <c r="B37" s="1">
         <v>15</v>
       </c>
@@ -1158,7 +1266,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
       <c r="B38" s="1">
         <v>5</v>
       </c>
@@ -1178,7 +1289,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
       <c r="B39" s="1">
         <v>5</v>
       </c>
@@ -1198,7 +1312,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
       <c r="B40" s="1">
         <v>5</v>
       </c>
@@ -1218,7 +1335,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
       <c r="B41" s="1">
         <v>5</v>
       </c>
@@ -1238,7 +1358,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
       <c r="B42" s="1">
         <v>10</v>
       </c>
@@ -1258,7 +1381,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
       <c r="B43" s="1">
         <v>10</v>
       </c>
@@ -1278,7 +1404,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
       <c r="B44" s="1">
         <v>10</v>
       </c>
@@ -1298,7 +1427,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
       <c r="B45" s="1">
         <v>15</v>
       </c>
@@ -1318,7 +1450,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
       <c r="B46" s="1">
         <v>15</v>
       </c>
@@ -1338,7 +1473,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
       <c r="B47" s="1">
         <v>15</v>
       </c>
@@ -1358,7 +1496,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
       <c r="B48" s="1">
         <v>5</v>
       </c>
@@ -1378,7 +1519,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
       <c r="B49" s="1">
         <v>5</v>
       </c>
@@ -1398,7 +1542,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="B50" s="1">
         <v>5</v>
       </c>
@@ -1418,7 +1565,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
       <c r="B51" s="1">
         <v>5</v>
       </c>
@@ -1438,7 +1588,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
       <c r="B52" s="1">
         <v>10</v>
       </c>
@@ -1458,7 +1611,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
       <c r="B53" s="1">
         <v>10</v>
       </c>
@@ -1478,7 +1634,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
       <c r="B54" s="1">
         <v>10</v>
       </c>
@@ -1498,7 +1657,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
       <c r="B55" s="1">
         <v>15</v>
       </c>
@@ -1518,7 +1680,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
       <c r="B56" s="1">
         <v>15</v>
       </c>
@@ -1538,7 +1703,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
       <c r="B57" s="1">
         <v>15</v>
       </c>
@@ -1558,7 +1726,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
       <c r="B58" s="1">
         <v>5</v>
       </c>
@@ -1578,7 +1749,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
       <c r="B59" s="1">
         <v>5</v>
       </c>
@@ -1598,7 +1772,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
       <c r="B60" s="1">
         <v>5</v>
       </c>
@@ -1618,7 +1795,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
       <c r="B61" s="1">
         <v>5</v>
       </c>
@@ -1638,7 +1818,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
       <c r="B62" s="1">
         <v>10</v>
       </c>
@@ -1658,7 +1841,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
       <c r="B63" s="1">
         <v>10</v>
       </c>
@@ -1678,7 +1864,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
       <c r="B64" s="1">
         <v>10</v>
       </c>
@@ -1698,7 +1887,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
       <c r="B65" s="1">
         <v>15</v>
       </c>
@@ -1718,7 +1910,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
       <c r="B66" s="1">
         <v>15</v>
       </c>
@@ -1738,7 +1933,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
       <c r="B67" s="1">
         <v>15</v>
       </c>
@@ -1758,7 +1956,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
       <c r="B68" s="1">
         <v>5</v>
       </c>
@@ -1778,7 +1979,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
       <c r="B69" s="1">
         <v>5</v>
       </c>
@@ -1798,7 +2002,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
       <c r="B70" s="1">
         <v>5</v>
       </c>
@@ -1818,7 +2025,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
       <c r="B71" s="1">
         <v>5</v>
       </c>
@@ -1838,7 +2048,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
       <c r="B72" s="1">
         <v>10</v>
       </c>
@@ -1858,7 +2071,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
       <c r="B73" s="1">
         <v>10</v>
       </c>
@@ -1878,7 +2094,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
       <c r="B74" s="1">
         <v>10</v>
       </c>
@@ -1898,7 +2117,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
       <c r="B75" s="1">
         <v>15</v>
       </c>
@@ -1918,7 +2140,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
       <c r="B76" s="1">
         <v>15</v>
       </c>
@@ -1938,7 +2163,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
       <c r="B77" s="1">
         <v>15</v>
       </c>
@@ -1958,7 +2186,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
       <c r="B78" s="1">
         <v>5</v>
       </c>
@@ -1978,7 +2209,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
       <c r="B79" s="1">
         <v>5</v>
       </c>
@@ -1998,7 +2232,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
       <c r="B80" s="1">
         <v>5</v>
       </c>
@@ -2018,7 +2255,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
       <c r="B81" s="1">
         <v>5</v>
       </c>
@@ -2038,7 +2278,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
       <c r="B82" s="1">
         <v>10</v>
       </c>
@@ -2058,7 +2301,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
       <c r="B83" s="1">
         <v>10</v>
       </c>
@@ -2078,7 +2324,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
       <c r="B84" s="1">
         <v>10</v>
       </c>
@@ -2098,7 +2347,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
       <c r="B85" s="1">
         <v>15</v>
       </c>
@@ -2118,7 +2370,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
       <c r="B86" s="1">
         <v>15</v>
       </c>
@@ -2138,7 +2393,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
       <c r="B87" s="1">
         <v>15</v>
       </c>
@@ -2158,7 +2416,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
       <c r="B88" s="1">
         <v>5</v>
       </c>
@@ -2178,7 +2439,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
       <c r="B89" s="1">
         <v>5</v>
       </c>
@@ -2198,7 +2462,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
       <c r="B90" s="1">
         <v>5</v>
       </c>
@@ -2218,7 +2485,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
       <c r="B91" s="1">
         <v>5</v>
       </c>
@@ -2238,7 +2508,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
       <c r="B92" s="1">
         <v>10</v>
       </c>
@@ -2258,7 +2531,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
       <c r="B93" s="1">
         <v>10</v>
       </c>
@@ -2278,7 +2554,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
       <c r="B94" s="1">
         <v>10</v>
       </c>
@@ -2298,7 +2577,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
       <c r="B95" s="1">
         <v>15</v>
       </c>
@@ -2318,7 +2600,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
       <c r="B96" s="1">
         <v>15</v>
       </c>
@@ -2338,7 +2623,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
       <c r="B97" s="1">
         <v>15</v>
       </c>
@@ -2358,7 +2646,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
       <c r="B98" s="1">
         <v>5</v>
       </c>
@@ -2378,7 +2669,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
       <c r="B99" s="1">
         <v>5</v>
       </c>
@@ -2398,7 +2692,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
       <c r="B100" s="1">
         <v>5</v>
       </c>
@@ -2418,7 +2715,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
       <c r="B101" s="1">
         <v>5</v>
       </c>
@@ -2438,7 +2738,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
       <c r="B102" s="1">
         <v>10</v>
       </c>
@@ -2458,7 +2761,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
       <c r="B103" s="1">
         <v>10</v>
       </c>
@@ -2478,7 +2784,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
       <c r="B104" s="1">
         <v>10</v>
       </c>
@@ -2498,7 +2807,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
       <c r="B105" s="1">
         <v>15</v>
       </c>
@@ -2518,7 +2830,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
       <c r="B106" s="1">
         <v>15</v>
       </c>
@@ -2538,7 +2853,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
       <c r="B107" s="1">
         <v>15</v>
       </c>
@@ -2558,7 +2876,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
       <c r="B108" s="1">
         <v>5</v>
       </c>
@@ -2578,7 +2899,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
       <c r="B109" s="1">
         <v>5</v>
       </c>
@@ -2598,7 +2922,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
       <c r="B110" s="1">
         <v>5</v>
       </c>
@@ -2618,7 +2945,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
       <c r="B111" s="1">
         <v>5</v>
       </c>
@@ -2638,7 +2968,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
       <c r="B112" s="1">
         <v>10</v>
       </c>
@@ -2658,7 +2991,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
       <c r="B113" s="1">
         <v>10</v>
       </c>
@@ -2678,7 +3014,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
       <c r="B114" s="1">
         <v>10</v>
       </c>
@@ -2698,7 +3037,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
       <c r="B115" s="1">
         <v>15</v>
       </c>
@@ -2718,7 +3060,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
       <c r="B116" s="1">
         <v>15</v>
       </c>
@@ -2738,7 +3083,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
       <c r="B117" s="1">
         <v>15</v>
       </c>
@@ -2758,7 +3106,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
       <c r="B118" s="1">
         <v>5</v>
       </c>
@@ -2778,7 +3129,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
       <c r="B119" s="1">
         <v>5</v>
       </c>
@@ -2798,7 +3152,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
       <c r="B120" s="1">
         <v>5</v>
       </c>
@@ -2818,7 +3175,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
       <c r="B121" s="1">
         <v>5</v>
       </c>
@@ -2838,7 +3198,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
       <c r="B122" s="1">
         <v>10</v>
       </c>
@@ -2858,7 +3221,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
       <c r="B123" s="1">
         <v>10</v>
       </c>
@@ -2878,7 +3244,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
       <c r="B124" s="1">
         <v>10</v>
       </c>
@@ -2898,7 +3267,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
       <c r="B125" s="1">
         <v>15</v>
       </c>
@@ -2918,7 +3290,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
       <c r="B126" s="1">
         <v>15</v>
       </c>
@@ -2938,7 +3313,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
       <c r="B127" s="1">
         <v>15</v>
       </c>
@@ -2958,7 +3336,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
       <c r="B128" s="1">
         <v>5</v>
       </c>
@@ -2978,7 +3359,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
       <c r="B129" s="1">
         <v>5</v>
       </c>
@@ -2998,7 +3382,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
       <c r="B130" s="1">
         <v>5</v>
       </c>
@@ -3018,7 +3405,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
       <c r="B131" s="1">
         <v>5</v>
       </c>
@@ -3038,7 +3428,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
       <c r="B132" s="1">
         <v>10</v>
       </c>
@@ -3058,7 +3451,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
       <c r="B133" s="1">
         <v>10</v>
       </c>
@@ -3078,7 +3474,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
       <c r="B134" s="1">
         <v>10</v>
       </c>
@@ -3098,7 +3497,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
       <c r="B135" s="1">
         <v>15</v>
       </c>
@@ -3118,7 +3520,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
       <c r="B136" s="1">
         <v>15</v>
       </c>
@@ -3138,7 +3543,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
       <c r="B137" s="1">
         <v>15</v>
       </c>
@@ -3158,7 +3566,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
       <c r="B138" s="1">
         <v>5</v>
       </c>
@@ -3178,7 +3589,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
       <c r="B139" s="1">
         <v>5</v>
       </c>
@@ -3198,7 +3612,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
       <c r="B140" s="1">
         <v>5</v>
       </c>
@@ -3218,7 +3635,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
       <c r="B141" s="1">
         <v>5</v>
       </c>
@@ -3238,7 +3658,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
       <c r="B142" s="1">
         <v>10</v>
       </c>
@@ -3258,7 +3681,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
       <c r="B143" s="1">
         <v>10</v>
       </c>
@@ -3278,7 +3704,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
       <c r="B144" s="1">
         <v>10</v>
       </c>
@@ -3298,7 +3727,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
       <c r="B145" s="1">
         <v>15</v>
       </c>
@@ -3318,7 +3750,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
       <c r="B146" s="1">
         <v>15</v>
       </c>
@@ -3338,7 +3773,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
       <c r="B147" s="1">
         <v>15</v>
       </c>
@@ -3358,7 +3796,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
       <c r="B148" s="1">
         <v>5</v>
       </c>
@@ -3378,7 +3819,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
       <c r="B149" s="1">
         <v>5</v>
       </c>
@@ -3398,7 +3842,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
       <c r="B150" s="1">
         <v>5</v>
       </c>
@@ -3418,7 +3865,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -3438,7 +3888,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
       <c r="B152" s="1">
         <v>10</v>
       </c>
@@ -3458,7 +3911,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
       <c r="B153" s="1">
         <v>10</v>
       </c>
@@ -3478,7 +3934,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
       <c r="B154" s="1">
         <v>10</v>
       </c>
@@ -3498,7 +3957,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
       <c r="B155" s="1">
         <v>15</v>
       </c>
@@ -3518,7 +3980,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
       <c r="B156" s="1">
         <v>15</v>
       </c>
@@ -3538,7 +4003,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
       <c r="B157" s="1">
         <v>15</v>
       </c>
@@ -3558,7 +4026,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
       <c r="B158" s="1">
         <v>10</v>
       </c>
@@ -3578,7 +4049,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
       <c r="B159" s="1">
         <v>10</v>
       </c>
@@ -3598,7 +4072,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
       <c r="B160" s="1">
         <v>10</v>
       </c>
@@ -3618,7 +4095,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
       <c r="B161" s="1">
         <v>10</v>
       </c>
@@ -3638,7 +4118,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
       <c r="B162" s="1">
         <v>10</v>
       </c>
@@ -3658,7 +4141,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
       <c r="B163" s="1">
         <v>10</v>
       </c>
@@ -3678,7 +4164,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
       <c r="B164" s="1">
         <v>10</v>
       </c>
@@ -3698,7 +4187,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
       <c r="B165" s="1">
         <v>10</v>
       </c>
@@ -3718,7 +4210,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
       <c r="B166" s="1">
         <v>10</v>
       </c>
@@ -3738,7 +4233,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
       <c r="B167" s="1">
         <v>10</v>
       </c>
@@ -3758,7 +4256,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
       <c r="B168" s="1">
         <v>10</v>
       </c>
@@ -3778,7 +4279,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
       <c r="B169" s="1">
         <v>10</v>
       </c>
@@ -3798,7 +4302,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
       <c r="B170" s="1">
         <v>10</v>
       </c>
@@ -3818,7 +4325,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
       <c r="B171" s="1">
         <v>10</v>
       </c>
@@ -3838,7 +4348,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
       <c r="B172" s="1">
         <v>10</v>
       </c>
@@ -3858,7 +4371,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
       <c r="B173" s="1">
         <v>10</v>
       </c>
@@ -3878,7 +4394,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
       <c r="B174" s="1">
         <v>10</v>
       </c>
@@ -3898,7 +4417,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
       <c r="B175" s="1">
         <v>10</v>
       </c>
@@ -3918,7 +4440,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
       <c r="B176" s="1">
         <v>10</v>
       </c>
@@ -3938,7 +4463,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
       <c r="B177" s="1">
         <v>10</v>
       </c>
@@ -3958,7 +4486,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
       <c r="B178" s="1">
         <v>10</v>
       </c>
@@ -3978,7 +4509,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
       <c r="B179" s="1">
         <v>10</v>
       </c>
@@ -3998,7 +4532,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
       <c r="B180" s="1">
         <v>10</v>
       </c>
@@ -4018,7 +4555,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
       <c r="B181" s="1">
         <v>10</v>
       </c>
@@ -4038,7 +4578,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
       <c r="B182" s="1">
         <v>10</v>
       </c>
@@ -4058,7 +4601,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
       <c r="B183" s="1">
         <v>10</v>
       </c>
@@ -4078,7 +4624,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
       <c r="B184" s="1">
         <v>10</v>
       </c>
@@ -4098,7 +4647,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
       <c r="B185" s="1">
         <v>10</v>
       </c>
@@ -4118,7 +4670,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
       <c r="B186" s="1">
         <v>10</v>
       </c>
@@ -4138,7 +4693,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
       <c r="B187" s="1">
         <v>10</v>
       </c>
@@ -4158,7 +4716,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
       <c r="B188" s="1">
         <v>10</v>
       </c>
@@ -4178,7 +4739,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
       <c r="B189" s="1">
         <v>10</v>
       </c>
@@ -4198,7 +4762,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
       <c r="B190" s="1">
         <v>10</v>
       </c>
@@ -4218,7 +4785,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
       <c r="B191" s="1">
         <v>10</v>
       </c>
@@ -4238,7 +4808,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
       <c r="B192" s="1">
         <v>10</v>
       </c>
@@ -4258,7 +4831,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
       <c r="B193" s="1">
         <v>10</v>
       </c>
@@ -4278,7 +4854,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
       <c r="B194" s="1">
         <v>15</v>
       </c>
@@ -4298,7 +4877,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
       <c r="B195" s="1">
         <v>15</v>
       </c>
@@ -4318,7 +4900,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
       <c r="B196" s="1">
         <v>15</v>
       </c>
@@ -4338,7 +4923,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
       <c r="B197" s="1">
         <v>15</v>
       </c>
@@ -4358,7 +4946,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
       <c r="B198" s="1">
         <v>15</v>
       </c>
@@ -4378,7 +4969,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
       <c r="B199" s="1">
         <v>15</v>
       </c>
@@ -4398,7 +4992,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
       <c r="B200" s="1">
         <v>15</v>
       </c>
@@ -4418,7 +5015,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
       <c r="B201" s="1">
         <v>15</v>
       </c>
@@ -4438,7 +5038,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
       <c r="B202" s="1">
         <v>15</v>
       </c>
@@ -4458,7 +5061,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
       <c r="B203" s="1">
         <v>15</v>
       </c>
@@ -4478,7 +5084,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
       <c r="B204" s="1">
         <v>15</v>
       </c>
@@ -4498,7 +5107,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
       <c r="B205" s="1">
         <v>15</v>
       </c>
@@ -4518,7 +5130,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
       <c r="B206" s="1">
         <v>15</v>
       </c>
@@ -4538,7 +5153,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
       <c r="B207" s="1">
         <v>15</v>
       </c>
@@ -4558,7 +5176,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
       <c r="B208" s="1">
         <v>15</v>
       </c>
@@ -4578,7 +5199,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
       <c r="B209" s="1">
         <v>15</v>
       </c>
@@ -4598,7 +5222,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
       <c r="B210" s="1">
         <v>15</v>
       </c>
@@ -4618,7 +5245,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
       <c r="B211" s="1">
         <v>15</v>
       </c>
@@ -4638,7 +5268,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
       <c r="B212" s="1">
         <v>15</v>
       </c>
@@ -4658,7 +5291,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
       <c r="B213" s="1">
         <v>15</v>
       </c>
@@ -4678,7 +5314,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
       <c r="B214" s="1">
         <v>15</v>
       </c>
@@ -4698,7 +5337,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
       <c r="B215" s="1">
         <v>15</v>
       </c>
@@ -4718,7 +5360,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
       <c r="B216" s="1">
         <v>15</v>
       </c>
@@ -4738,7 +5383,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
       <c r="B217" s="1">
         <v>15</v>
       </c>
@@ -4758,7 +5406,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
       <c r="B218" s="1">
         <v>15</v>
       </c>
@@ -4778,7 +5429,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
       <c r="B219" s="1">
         <v>15</v>
       </c>
@@ -4798,7 +5452,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
       <c r="B220" s="1">
         <v>15</v>
       </c>
@@ -4818,7 +5475,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
       <c r="B221" s="1">
         <v>15</v>
       </c>
@@ -4838,7 +5498,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
       <c r="B222" s="1">
         <v>15</v>
       </c>
@@ -4858,7 +5521,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
       <c r="B223" s="1">
         <v>15</v>
       </c>
@@ -4878,7 +5544,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
       <c r="B224" s="1">
         <v>15</v>
       </c>
@@ -4898,7 +5567,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
       <c r="B225" s="1">
         <v>15</v>
       </c>
@@ -4918,7 +5590,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
       <c r="B226" s="1">
         <v>15</v>
       </c>
@@ -4938,7 +5613,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
       <c r="B227" s="1">
         <v>15</v>
       </c>
@@ -4958,7 +5636,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
       <c r="B228" s="1">
         <v>15</v>
       </c>
@@ -4978,7 +5659,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
       <c r="B229" s="1">
         <v>15</v>
       </c>
@@ -4998,7 +5682,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
       <c r="B230" s="1">
         <v>5</v>
       </c>
@@ -5018,7 +5705,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
       <c r="B231" s="1">
         <v>5</v>
       </c>
@@ -5038,7 +5728,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
       <c r="B232" s="1">
         <v>5</v>
       </c>
@@ -5058,7 +5751,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
       <c r="B233" s="1">
         <v>5</v>
       </c>
@@ -5078,7 +5774,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
       <c r="B234" s="1">
         <v>5</v>
       </c>
@@ -5098,7 +5797,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
       <c r="B235" s="1">
         <v>5</v>
       </c>
@@ -5118,7 +5820,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
       <c r="B236" s="1">
         <v>5</v>
       </c>
@@ -5138,7 +5843,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
       <c r="B237" s="1">
         <v>5</v>
       </c>
@@ -5158,7 +5866,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
       <c r="B238" s="1">
         <v>5</v>
       </c>
@@ -5178,7 +5889,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
       <c r="B239" s="1">
         <v>5</v>
       </c>
@@ -5198,7 +5912,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
       <c r="B240" s="1">
         <v>5</v>
       </c>
@@ -5218,7 +5935,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
       <c r="B241" s="1">
         <v>5</v>
       </c>
@@ -5238,7 +5958,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
       <c r="B242" s="1">
         <v>4</v>
       </c>
@@ -5258,7 +5981,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
       <c r="B243" s="1">
         <v>4</v>
       </c>
@@ -5278,7 +6004,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
       <c r="B244" s="1">
         <v>4</v>
       </c>
@@ -5298,7 +6027,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
       <c r="B245" s="1">
         <v>4</v>
       </c>
@@ -5318,7 +6050,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
       <c r="B246" s="1">
         <v>4</v>
       </c>
@@ -5338,7 +6073,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
       <c r="B247" s="1">
         <v>3</v>
       </c>
@@ -5358,7 +6096,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
       <c r="B248" s="1">
         <v>3</v>
       </c>
@@ -5378,7 +6119,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
       <c r="B249" s="1">
         <v>3</v>
       </c>
@@ -5398,7 +6142,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
       <c r="B250" s="1">
         <v>3</v>
       </c>
@@ -5418,7 +6165,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
       <c r="B251" s="1">
         <v>3</v>
       </c>
@@ -5438,7 +6188,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
       <c r="B252" s="1">
         <v>3</v>
       </c>
@@ -5458,7 +6211,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
       <c r="B253" s="1">
         <v>2</v>
       </c>
@@ -5478,7 +6234,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
       <c r="B254" s="1">
         <v>2</v>
       </c>
@@ -5498,7 +6257,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
       <c r="B255" s="1">
         <v>2</v>
       </c>
@@ -5518,7 +6280,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
       <c r="B256" s="1">
         <v>2</v>
       </c>
@@ -5538,7 +6303,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
       <c r="B257" s="1">
         <v>2</v>
       </c>
@@ -5558,7 +6326,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
       <c r="B258" s="1">
         <v>2</v>
       </c>
@@ -5578,7 +6349,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
       <c r="B259" s="1">
         <v>2</v>
       </c>
@@ -5598,7 +6372,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
       <c r="B260" s="1">
         <v>2</v>
       </c>
@@ -5618,7 +6395,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
       <c r="B261" s="1">
         <v>4</v>
       </c>
@@ -5638,7 +6418,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
       <c r="B262" s="1">
         <v>4</v>
       </c>
@@ -5658,7 +6441,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
       <c r="B263" s="1">
         <v>4</v>
       </c>
@@ -5678,7 +6464,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
       <c r="B264" s="1">
         <v>4</v>
       </c>
@@ -5698,7 +6487,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
       <c r="B265" s="1">
         <v>4</v>
       </c>
@@ -5718,7 +6510,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
       <c r="B266" s="1">
         <v>3</v>
       </c>
@@ -5738,7 +6533,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
       <c r="B267" s="1">
         <v>3</v>
       </c>
@@ -5758,7 +6556,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
       <c r="B268" s="1">
         <v>3</v>
       </c>
@@ -5778,7 +6579,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
       <c r="B269" s="1">
         <v>3</v>
       </c>
@@ -5798,7 +6602,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
       <c r="B270" s="1">
         <v>3</v>
       </c>
@@ -5818,7 +6625,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
       <c r="B271" s="1">
         <v>3</v>
       </c>
@@ -5838,7 +6648,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
       <c r="B272" s="1">
         <v>2</v>
       </c>
@@ -5858,7 +6671,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
       <c r="B273" s="1">
         <v>2</v>
       </c>
@@ -5878,7 +6694,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
       <c r="B274" s="1">
         <v>2</v>
       </c>
@@ -5898,7 +6717,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
       <c r="B275" s="1">
         <v>2</v>
       </c>
@@ -5918,7 +6740,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
       <c r="B276" s="1">
         <v>2</v>
       </c>
@@ -5938,7 +6763,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
       <c r="B277" s="1">
         <v>2</v>
       </c>
@@ -5958,7 +6786,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
       <c r="B278" s="1">
         <v>2</v>
       </c>
@@ -5978,7 +6809,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
       <c r="B279" s="1">
         <v>2</v>
       </c>
@@ -5998,7 +6832,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
       <c r="B280" s="1">
         <v>4</v>
       </c>
@@ -6018,7 +6855,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
       <c r="B281" s="1">
         <v>4</v>
       </c>
@@ -6038,7 +6878,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
       <c r="B282" s="1">
         <v>4</v>
       </c>
@@ -6058,7 +6901,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
       <c r="B283" s="1">
         <v>4</v>
       </c>
@@ -6078,7 +6924,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
       <c r="B284" s="1">
         <v>4</v>
       </c>
@@ -6098,7 +6947,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
       <c r="B285" s="1">
         <v>3</v>
       </c>
@@ -6118,7 +6970,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
       <c r="B286" s="1">
         <v>3</v>
       </c>
@@ -6138,7 +6993,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
       <c r="B287" s="1">
         <v>3</v>
       </c>
@@ -6158,7 +7016,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
       <c r="B288" s="1">
         <v>3</v>
       </c>
@@ -6178,7 +7039,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
       <c r="B289" s="1">
         <v>3</v>
       </c>
@@ -6198,7 +7062,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
       <c r="B290" s="1">
         <v>3</v>
       </c>
@@ -6218,7 +7085,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
       <c r="B291" s="1">
         <v>2</v>
       </c>
@@ -6238,7 +7108,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
       <c r="B292" s="1">
         <v>2</v>
       </c>
@@ -6258,7 +7131,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
       <c r="B293" s="1">
         <v>2</v>
       </c>
@@ -6278,7 +7154,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
       <c r="B294" s="1">
         <v>2</v>
       </c>
@@ -6298,7 +7177,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
       <c r="B295" s="1">
         <v>2</v>
       </c>
@@ -6318,7 +7200,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
       <c r="B296" s="1">
         <v>2</v>
       </c>
@@ -6338,7 +7223,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
       <c r="B297" s="1">
         <v>2</v>
       </c>
@@ -6358,7 +7246,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
       <c r="B298" s="1">
         <v>2</v>
       </c>
@@ -6378,7 +7269,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
       <c r="B299" s="1">
         <v>4</v>
       </c>
@@ -6398,7 +7292,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
       <c r="B300" s="1">
         <v>4</v>
       </c>
@@ -6418,7 +7315,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
       <c r="B301" s="1">
         <v>4</v>
       </c>
@@ -6438,7 +7338,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
       <c r="B302" s="1">
         <v>4</v>
       </c>
@@ -6458,7 +7361,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
       <c r="B303" s="1">
         <v>4</v>
       </c>
@@ -6478,7 +7384,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
       <c r="B304" s="1">
         <v>3</v>
       </c>
@@ -6498,7 +7407,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
       <c r="B305" s="1">
         <v>3</v>
       </c>
@@ -6518,7 +7430,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
       <c r="B306" s="1">
         <v>3</v>
       </c>
@@ -6538,7 +7453,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
       <c r="B307" s="1">
         <v>3</v>
       </c>
@@ -6558,7 +7476,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
       <c r="B308" s="1">
         <v>3</v>
       </c>
@@ -6578,7 +7499,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
       <c r="B309" s="1">
         <v>3</v>
       </c>
@@ -6598,7 +7522,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
       <c r="B310" s="1">
         <v>2</v>
       </c>
@@ -6618,7 +7545,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
       <c r="B311" s="1">
         <v>2</v>
       </c>
@@ -6638,7 +7568,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
       <c r="B312" s="1">
         <v>2</v>
       </c>
@@ -6658,7 +7591,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
       <c r="B313" s="1">
         <v>2</v>
       </c>
@@ -6678,7 +7614,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
       <c r="B314" s="1">
         <v>2</v>
       </c>
@@ -6698,7 +7637,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
       <c r="B315" s="1">
         <v>2</v>
       </c>
@@ -6718,7 +7660,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
       <c r="B316" s="1">
         <v>2</v>
       </c>
@@ -6738,7 +7683,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
       <c r="B317" s="1">
         <v>2</v>
       </c>
@@ -6758,7 +7706,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
       <c r="B318" s="1">
         <v>4</v>
       </c>
@@ -6778,7 +7729,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
       <c r="B319" s="1">
         <v>4</v>
       </c>
@@ -6798,7 +7752,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
       <c r="B320" s="1">
         <v>4</v>
       </c>
@@ -6818,7 +7775,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
       <c r="B321" s="1">
         <v>4</v>
       </c>
@@ -6838,7 +7798,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
       <c r="B322" s="1">
         <v>4</v>
       </c>
@@ -6858,7 +7821,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
       <c r="B323" s="1">
         <v>3</v>
       </c>
@@ -6878,7 +7844,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
       <c r="B324" s="1">
         <v>3</v>
       </c>
@@ -6898,7 +7867,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
       <c r="B325" s="1">
         <v>3</v>
       </c>
@@ -6918,7 +7890,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
       <c r="B326" s="1">
         <v>3</v>
       </c>
@@ -6938,7 +7913,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
       <c r="B327" s="1">
         <v>3</v>
       </c>
@@ -6958,7 +7936,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
       <c r="B328" s="1">
         <v>3</v>
       </c>
@@ -6978,7 +7959,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
       <c r="B329" s="1">
         <v>2</v>
       </c>
@@ -6998,7 +7982,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
       <c r="B330" s="1">
         <v>2</v>
       </c>
@@ -7018,7 +8005,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
       <c r="B331" s="1">
         <v>2</v>
       </c>
@@ -7038,7 +8028,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
       <c r="B332" s="1">
         <v>2</v>
       </c>
@@ -7058,7 +8051,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
       <c r="B333" s="1">
         <v>2</v>
       </c>
@@ -7078,7 +8074,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
       <c r="B334" s="1">
         <v>2</v>
       </c>
@@ -7098,7 +8097,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
       <c r="B335" s="1">
         <v>2</v>
       </c>
@@ -7118,7 +8120,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
       <c r="B336" s="1">
         <v>2</v>
       </c>
@@ -7138,7 +8143,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
       <c r="B337" s="1">
         <v>4</v>
       </c>
@@ -7158,7 +8166,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
       <c r="B338" s="1">
         <v>4</v>
       </c>
@@ -7178,7 +8189,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
       <c r="B339" s="1">
         <v>4</v>
       </c>
@@ -7198,7 +8212,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
       <c r="B340" s="1">
         <v>4</v>
       </c>
@@ -7218,7 +8235,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
       <c r="B341" s="1">
         <v>4</v>
       </c>
@@ -7238,7 +8258,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
       <c r="B342" s="1">
         <v>3</v>
       </c>
@@ -7258,7 +8281,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
       <c r="B343" s="1">
         <v>3</v>
       </c>
@@ -7278,7 +8304,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
       <c r="B344" s="1">
         <v>3</v>
       </c>
@@ -7298,7 +8327,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
       <c r="B345" s="1">
         <v>3</v>
       </c>
@@ -7318,7 +8350,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
       <c r="B346" s="1">
         <v>3</v>
       </c>
@@ -7338,7 +8373,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
       <c r="B347" s="1">
         <v>3</v>
       </c>
@@ -7358,7 +8396,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
       <c r="B348" s="1">
         <v>2</v>
       </c>
@@ -7378,7 +8419,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
       <c r="B349" s="1">
         <v>2</v>
       </c>
@@ -7398,7 +8442,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
       <c r="B350" s="1">
         <v>2</v>
       </c>
@@ -7418,7 +8465,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
       <c r="B351" s="1">
         <v>2</v>
       </c>
@@ -7438,7 +8488,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
       <c r="B352" s="1">
         <v>2</v>
       </c>
@@ -7458,7 +8511,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
       <c r="B353" s="1">
         <v>2</v>
       </c>
@@ -7478,7 +8534,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
       <c r="B354" s="1">
         <v>2</v>
       </c>
@@ -7498,7 +8557,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
       <c r="B355" s="1">
         <v>2</v>
       </c>
@@ -7518,7 +8580,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
       <c r="B356" s="1">
         <v>1</v>
       </c>
@@ -7538,7 +8603,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
       <c r="B357" s="1">
         <v>1</v>
       </c>
@@ -7558,7 +8626,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
       <c r="B358" s="1">
         <v>1</v>
       </c>
@@ -7578,7 +8649,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
       <c r="B359" s="1">
         <v>1</v>
       </c>
@@ -7598,7 +8672,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
       <c r="B360" s="1">
         <v>1</v>
       </c>
@@ -7618,7 +8695,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
       <c r="B361" s="1">
         <v>1</v>
       </c>
@@ -7638,7 +8718,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
       <c r="B362" s="1">
         <v>1</v>
       </c>
@@ -7658,7 +8741,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
       <c r="B363" s="1">
         <v>1</v>
       </c>
@@ -7678,7 +8764,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
       <c r="B364" s="1">
         <v>1</v>
       </c>
